--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,13 +428,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -442,7 +442,7 @@
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="4" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -520,6 +520,1287 @@
         <is>
           <t>min</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Booz</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>James Scott</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CDL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Denzel Aberdeen</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CDL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Malik Dia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clay</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Collin Chandler</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clay</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ilias Kamardine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Otega Oweh</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>AJ Storr</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Malachi Moreno</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mouhamed Dioubate</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Corey Chest</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jasper Johnson</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Zach Day</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Andrija Jelavic</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Brandon Garrison</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Augusto Cassiá</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Eduardo Klafke</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Kezza Giffa</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Travis Perry</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Koren Johnson</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Patton Pinkins</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0:56 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +1814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +1844,84 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Booz</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CDL</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Clay</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hal</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -540,47 +540,47 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5:36 - 1st Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -601,47 +601,47 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -662,32 +662,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
         <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -723,32 +723,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5:36 - 1st Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -799,14 +799,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -860,14 +860,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5:36 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -921,23 +921,23 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
         <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -967,47 +967,47 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1028,47 +1028,47 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5:36 - 1st Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -1104,14 +1104,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5:36 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1287,20 +1287,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
         <v>5</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4</v>
-      </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5:36 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -1470,20 +1470,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5:36 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" t="n">
         <v>14</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1531,32 +1531,32 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5:36 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H18" t="n">
+        <v>12</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>8</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5:36 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1617,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1678,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -1699,35 +1699,35 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1760,47 +1760,47 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1821,12 +1821,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1836,23 +1836,23 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>8</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1882,35 +1882,35 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5:36 - 1st Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1919,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O24" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1958,32 +1958,32 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2019,32 +2019,32 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2166,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -2187,32 +2187,32 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5:36 - 1st Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2263,20 +2263,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5:36 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2285,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5:36 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2385,20 +2385,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>5:36 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -2407,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -2431,38 +2431,38 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Brandon Walker</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -2492,47 +2492,47 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5:36 - 1st Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -2553,47 +2553,47 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -2639,22 +2639,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -2675,47 +2675,47 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>5:36 - 1st Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -2736,22 +2736,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5:36 - 1st Half</t>
+          <t>6:10 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2797,26 +2797,26 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10:33 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O39" t="n">
         <v>5</v>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2873,11 +2873,11 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>5:36 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -2971,27 +2971,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,34 +535,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -571,16 +571,16 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -596,22 +596,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -638,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -652,7 +652,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -677,32 +677,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -713,7 +713,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -723,47 +723,47 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -774,7 +774,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -784,12 +784,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -799,32 +799,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
         <v>4</v>
       </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -835,57 +835,57 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
         <v>9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -896,42 +896,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -957,7 +957,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -967,35 +967,35 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1028,47 +1028,47 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -1079,17 +1079,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1104,23 +1104,23 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -1140,45 +1140,45 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>13</v>
       </c>
       <c r="I12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -1201,48 +1201,48 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1297,13 +1297,13 @@
         <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1323,22 +1323,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1348,32 +1348,32 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
         <v>4</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1394,29 +1394,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1425,16 +1425,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1445,57 +1445,57 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I17" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
         <v>3</v>
       </c>
-      <c r="K17" t="n">
-        <v>4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1516,32 +1516,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1550,13 +1550,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1567,22 +1567,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1592,32 +1592,32 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -1628,17 +1628,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1653,32 +1653,32 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>11</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1699,17 +1699,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1718,22 +1718,22 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1760,17 +1760,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1779,19 +1779,19 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -1811,57 +1811,57 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -1872,17 +1872,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1897,32 +1897,32 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I24" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1933,57 +1933,57 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O25" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -1994,57 +1994,57 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2065,47 +2065,47 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
         <v>3</v>
       </c>
-      <c r="J27" t="n">
-        <v>3</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2126,33 +2126,33 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
+        <v>7</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7</v>
+      </c>
+      <c r="J28" t="n">
         <v>4</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5</v>
-      </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2187,35 +2187,35 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -2238,17 +2238,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2263,20 +2263,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -2299,48 +2299,48 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -2360,32 +2360,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -2395,22 +2395,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2431,12 +2431,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2446,32 +2446,32 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N33" t="n">
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2492,47 +2492,47 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2568,32 +2568,32 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -2614,32 +2614,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -2675,44 +2675,44 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
         <v>9</v>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2751,32 +2751,32 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>6:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O38" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
@@ -2797,35 +2797,35 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>0:00 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-3</v>
+        <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -2858,47 +2858,2609 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>Chandler Bing</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Augusto Cassiá</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Corey Chest</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>10</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Jamarion Davis-Fleming</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>8</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3</v>
+      </c>
+      <c r="O43" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Jasper Johnson</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>11</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3</v>
+      </c>
+      <c r="O44" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Tyler Harris</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Zach Day</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>AK Okereke</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Jordan Ross</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>UGA@TEX</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Justin Abson</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>UGA@TEX</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Mike James</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>6</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Achor Achor</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Chendall Weaver</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>UGA@TEX</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Pop Isaacs</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0:00 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Brandon Garrison</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>EJ Walker</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0:00 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Ali Dibba</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0:00 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Dellquan Warren</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2</v>
+      </c>
+      <c r="O58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Josh Holloway</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0:00 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Patton Pinkins</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9</v>
+      </c>
+      <c r="J60" t="n">
+        <v>4</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Jake Wilkins</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>UGA@TEX</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Kanon Catchings</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>UGA@TEX</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Simeon Wilcher</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>UGA@TEX</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Amier Ali</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Camden Heide</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>UGA@TEX</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Kareem Stagg</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>UGA@TEX</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>King Grace</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>MSST</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>VAN@MSST</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Brandon Walker</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Dylan James</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>UGA@TEX</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>Halftime</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Eduardo Klafke</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Federiko Federiko</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0:00 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Hayden Assemian</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0:00 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Jamie Vinson</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0:00 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Jayden Leverett</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Kezza Giffa</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Travis Perry</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Grant Polk</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0:00 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Jaylon Dean-Vines</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Lassina Traore</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>UGA@TEX</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2</v>
+      </c>
+      <c r="O79" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Koren Johnson</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
         <v>-4</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>9</v>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2</v>
+      </c>
+      <c r="O81" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Elijah Strong</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0:00 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2949,10 +5511,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2962,7 +5524,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -2971,27 +5533,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3001,7 +5563,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -3010,27 +5572,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -555,20 +555,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>12:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -577,10 +577,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -616,17 +616,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>12:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -657,52 +657,52 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:33 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -723,47 +723,47 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -784,47 +784,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -845,47 +845,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Marcus Hill</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -896,22 +896,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -921,32 +921,32 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
         <v>13</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3</v>
-      </c>
-      <c r="O8" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -957,7 +957,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -967,32 +967,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:33 - 1st Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="I9" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1023,49 +1023,49 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I10" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
         <v>25</v>
@@ -1089,12 +1089,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1108,28 +1108,28 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -1140,22 +1140,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1169,28 +1169,28 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1230,16 +1230,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1272,47 +1272,47 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:33 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1328,22 +1328,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="I15" t="n">
+        <v>13</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
         <v>3</v>
       </c>
-      <c r="J15" t="n">
-        <v>3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1394,35 +1394,35 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:33 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1474,28 +1474,28 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I17" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1516,26 +1516,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
@@ -1550,13 +1550,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -1567,57 +1567,57 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:33 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1628,22 +1628,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -1689,57 +1689,57 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>13</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -1750,48 +1750,48 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>11:33 - 1st Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1811,57 +1811,57 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -1872,57 +1872,57 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -1933,57 +1933,57 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:33 - 1st Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1994,48 +1994,48 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>11:33 - 1st Half</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -2055,57 +2055,57 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>7</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>3</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1</v>
-      </c>
       <c r="O27" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -2116,57 +2116,57 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -2177,42 +2177,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>11:33 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -2238,57 +2238,57 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I30" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
         <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2299,45 +2299,45 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>12:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -2360,57 +2360,57 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>11:33 - 1st Half</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -2421,57 +2421,57 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I33" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J33" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -2482,57 +2482,57 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>9</v>
       </c>
       <c r="I34" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -2543,48 +2543,48 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -2593,7 +2593,7 @@
         <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -2604,17 +2604,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J36" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2690,32 +2690,32 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
         <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2736,47 +2736,47 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
+        <v>12</v>
+      </c>
+      <c r="I38" t="n">
         <v>11</v>
       </c>
-      <c r="I38" t="n">
-        <v>6</v>
-      </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2797,35 +2797,35 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>12:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O39" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2858,35 +2858,35 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:33 - 1st Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2909,27 +2909,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2938,28 +2938,28 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -2970,45 +2970,45 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J42" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
         <v>1</v>
@@ -3017,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -3031,48 +3031,48 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
         <v>3</v>
       </c>
-      <c r="J43" t="n">
-        <v>8</v>
-      </c>
       <c r="K43" t="n">
         <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
@@ -3081,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="O43" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -3092,45 +3092,45 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:33 - 1st Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="I44" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -3139,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3163,17 +3163,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3182,28 +3182,28 @@
         </is>
       </c>
       <c r="H45" t="n">
+        <v>19</v>
+      </c>
+      <c r="I45" t="n">
         <v>8</v>
       </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3224,47 +3224,47 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>8</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3285,17 +3285,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3304,13 +3304,13 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="I47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O47" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -3346,47 +3346,47 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N48" t="n">
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -3407,47 +3407,47 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
@@ -3468,32 +3468,32 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
@@ -3529,17 +3529,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3548,28 +3548,28 @@
         </is>
       </c>
       <c r="H51" t="n">
+        <v>11</v>
+      </c>
+      <c r="I51" t="n">
         <v>6</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
       <c r="J51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O51" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
@@ -3590,12 +3590,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3609,16 +3609,16 @@
         </is>
       </c>
       <c r="H52" t="n">
+        <v>9</v>
+      </c>
+      <c r="I52" t="n">
         <v>5</v>
       </c>
-      <c r="I52" t="n">
-        <v>3</v>
-      </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -3651,47 +3651,47 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -3712,44 +3712,44 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
         <v>10</v>
@@ -3773,35 +3773,35 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H55" t="n">
+        <v>8</v>
+      </c>
+      <c r="I55" t="n">
         <v>4</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
       <c r="J55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -3810,10 +3810,10 @@
         <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -3834,47 +3834,47 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I56" t="n">
         <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O56" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
@@ -3895,47 +3895,47 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I57" t="n">
         <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O57" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
@@ -3956,17 +3956,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3975,28 +3975,28 @@
         </is>
       </c>
       <c r="H58" t="n">
+        <v>8</v>
+      </c>
+      <c r="I58" t="n">
+        <v>11</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
         <v>3</v>
       </c>
-      <c r="I58" t="n">
-        <v>2</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>2</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2</v>
-      </c>
       <c r="O58" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4032,20 +4032,20 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H59" t="n">
+        <v>8</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9</v>
+      </c>
+      <c r="J59" t="n">
         <v>3</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
       <c r="K59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -4054,10 +4054,10 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -4078,12 +4078,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4097,28 +4097,28 @@
         </is>
       </c>
       <c r="H60" t="n">
+        <v>8</v>
+      </c>
+      <c r="I60" t="n">
         <v>3</v>
       </c>
-      <c r="I60" t="n">
-        <v>9</v>
-      </c>
       <c r="J60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
@@ -4139,47 +4139,47 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -4200,33 +4200,33 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I62" t="n">
+        <v>6</v>
+      </c>
+      <c r="J62" t="n">
         <v>3</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4276,32 +4276,32 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>12:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
@@ -4322,12 +4322,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Amier Ali</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4341,16 +4341,16 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I64" t="n">
+        <v>5</v>
+      </c>
+      <c r="J64" t="n">
         <v>3</v>
       </c>
-      <c r="J64" t="n">
-        <v>2</v>
-      </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -4359,10 +4359,10 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
@@ -4383,35 +4383,35 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
@@ -4444,47 +4444,47 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
@@ -4505,32 +4505,32 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I67" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -4539,13 +4539,13 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -4566,12 +4566,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4585,28 +4585,28 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -4627,32 +4627,32 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -4688,32 +4688,32 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:33 - 1st Half</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -4722,13 +4722,13 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
         <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -4749,32 +4749,32 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -4783,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -4810,47 +4810,47 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O72" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
@@ -4871,32 +4871,32 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -4908,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
@@ -4932,29 +4932,29 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -4963,16 +4963,16 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -4993,47 +4993,47 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
@@ -5054,38 +5054,38 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -5115,38 +5115,38 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>12:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
@@ -5176,32 +5176,32 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Jaylon Dean-Vines</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:33 - 1st Half</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -5237,32 +5237,32 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>Amier Ali</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -5274,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -5298,32 +5298,32 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -5359,35 +5359,35 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:05 - 2nd Half</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -5396,10 +5396,10 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -5420,47 +5420,1084 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>King Grace</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>8</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>11:33 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Brandon Walker</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Eduardo Klafke</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+      <c r="O85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Federiko Federiko</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>10:25 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Jamie Vinson</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>10:25 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Jayden Leverett</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Kezza Giffa</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+      <c r="O89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Travis Perry</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Dayton Forsythe</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>11:33 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Dylan James</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>UGA@TEX</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>12:05 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Grant Polk</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>10:25 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Jaylon Dean-Vines</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Lassina Traore</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>UGA@TEX</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>12:05 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>2</v>
+      </c>
+      <c r="O95" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Trent Pierce</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>11:33 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Koren Johnson</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2</v>
+      </c>
+      <c r="O98" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>Elijah Strong</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>SC@TA&amp;M</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>0:00 - 1st Half</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
-        <v>11</v>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>10:25 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>-6</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5507,11 +6544,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -5520,14 +6557,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5537,7 +6574,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
@@ -5546,14 +6583,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -5563,10 +6600,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -5576,7 +6613,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -5585,11 +6622,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -555,23 +555,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12:05 - 2nd Half</t>
+          <t>6:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -616,17 +616,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12:05 - 2nd Half</t>
+          <t>6:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -635,13 +635,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -677,17 +677,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11:33 - 1st Half</t>
+          <t>7:53 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -784,47 +784,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12:05 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -845,47 +845,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
         <v>4</v>
       </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -921,17 +921,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>4:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -982,7 +982,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11:33 - 1st Half</t>
+          <t>7:53 - 1st Half</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1043,20 +1043,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>4:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I10" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -1287,11 +1287,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11:33 - 1st Half</t>
+          <t>7:53 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11:33 - 1st Half</t>
+          <t>7:53 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11:33 - 1st Half</t>
+          <t>7:53 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11:33 - 1st Half</t>
+          <t>7:53 - 1st Half</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1897,17 +1897,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>4:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I24" t="n">
         <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11:33 - 1st Half</t>
+          <t>7:53 - 1st Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -2019,11 +2019,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>11:33 - 1st Half</t>
+          <t>7:53 - 1st Half</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -2202,14 +2202,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>11:33 - 1st Half</t>
+          <t>7:53 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12:05 - 2nd Half</t>
+          <t>6:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -2324,14 +2324,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12:05 - 2nd Half</t>
+          <t>6:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>11:33 - 1st Half</t>
+          <t>7:53 - 1st Half</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -2446,20 +2446,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12:05 - 2nd Half</t>
+          <t>6:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I33" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
         <v>4</v>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12:05 - 2nd Half</t>
+          <t>6:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -2584,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -2593,7 +2593,7 @@
         <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -2690,23 +2690,23 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>4:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H37" t="n">
+        <v>22</v>
+      </c>
+      <c r="I37" t="n">
         <v>16</v>
       </c>
-      <c r="I37" t="n">
-        <v>11</v>
-      </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
@@ -2751,14 +2751,14 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>4:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I38" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J38" t="n">
         <v>4</v>
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -2812,14 +2812,14 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12:05 - 2nd Half</t>
+          <t>6:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J39" t="n">
         <v>2</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O39" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11:33 - 1st Half</t>
+          <t>7:53 - 1st Half</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2995,20 +2995,20 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>4:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I42" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L42" t="n">
         <v>1</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
@@ -3056,32 +3056,32 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>4:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
+        <v>5</v>
+      </c>
+      <c r="K43" t="n">
         <v>3</v>
       </c>
-      <c r="K43" t="n">
-        <v>2</v>
-      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N43" t="n">
         <v>3</v>
       </c>
       <c r="O43" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
@@ -3117,14 +3117,14 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>11:33 - 1st Half</t>
+          <t>7:53 - 1st Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -3239,20 +3239,20 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>4:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I46" t="n">
         <v>9</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3361,32 +3361,32 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>4:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>17</v>
       </c>
       <c r="I48" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3422,32 +3422,32 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>4:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I49" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N49" t="n">
         <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -3590,32 +3590,32 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>4:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
         <v>2</v>
@@ -3630,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -3651,35 +3651,35 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I53" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3688,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
@@ -3712,47 +3712,47 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>4:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
         <v>8</v>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -3773,22 +3773,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>12:05 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -3798,10 +3798,10 @@
         <v>4</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -3834,47 +3834,47 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>8</v>
       </c>
       <c r="I56" t="n">
+        <v>4</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="n">
         <v>3</v>
       </c>
-      <c r="J56" t="n">
-        <v>10</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3920,22 +3920,22 @@
         <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O57" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -3956,17 +3956,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3978,10 +3978,10 @@
         <v>8</v>
       </c>
       <c r="I58" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K58" t="n">
         <v>2</v>
@@ -3990,13 +3990,13 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N58" t="n">
         <v>3</v>
       </c>
       <c r="O58" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
@@ -4017,47 +4017,47 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H59" t="n">
         <v>8</v>
       </c>
       <c r="I59" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J59" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
         <v>3</v>
       </c>
-      <c r="K59" t="n">
-        <v>1</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>1</v>
-      </c>
       <c r="O59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
@@ -4078,47 +4078,47 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H60" t="n">
         <v>8</v>
       </c>
       <c r="I60" t="n">
+        <v>6</v>
+      </c>
+      <c r="J60" t="n">
         <v>3</v>
       </c>
-      <c r="J60" t="n">
-        <v>2</v>
-      </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4161,16 +4161,16 @@
         <v>8</v>
       </c>
       <c r="I61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
@@ -4200,17 +4200,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4225,7 +4225,7 @@
         <v>6</v>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -4234,13 +4234,13 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -4261,35 +4261,35 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>12:05 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -4298,10 +4298,10 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
@@ -4322,35 +4322,35 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I64" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
@@ -4383,22 +4383,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -4408,10 +4408,10 @@
         <v>5</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -4420,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4459,32 +4459,32 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>4:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
@@ -4505,32 +4505,32 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>12:05 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H67" t="n">
         <v>6</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -4539,13 +4539,13 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -4566,38 +4566,38 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:53 - 1st Half</t>
         </is>
       </c>
       <c r="H68" t="n">
         <v>6</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J68" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -4688,22 +4688,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11:33 - 1st Half</t>
+          <t>4:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -4713,22 +4713,22 @@
         <v>4</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -4749,32 +4749,32 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:53 - 1st Half</t>
         </is>
       </c>
       <c r="H71" t="n">
+        <v>5</v>
+      </c>
+      <c r="I71" t="n">
         <v>4</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
       <c r="J71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -4810,17 +4810,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4829,28 +4829,28 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -4871,47 +4871,47 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
         <v>4</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -4932,26 +4932,26 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L74" t="n">
         <v>1</v>
@@ -4969,10 +4969,10 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O74" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
@@ -4993,35 +4993,35 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>12:05 - 2nd Half</t>
+          <t>4:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L75" t="n">
         <v>1</v>
@@ -5030,10 +5030,10 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -5054,32 +5054,32 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>12:05 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -5091,10 +5091,10 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5130,23 +5130,23 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>12:05 - 2nd Half</t>
+          <t>6:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H77" t="n">
         <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
@@ -5176,29 +5176,29 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>11:33 - 1st Half</t>
+          <t>4:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H78" t="n">
         <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
         <v>2</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -5237,32 +5237,32 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Amier Ali</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80">
@@ -5298,32 +5298,32 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Amier Ali</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>12:05 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H80" t="n">
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5374,23 +5374,23 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>12:05 - 2nd Half</t>
+          <t>6:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H81" t="n">
         <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82">
@@ -5420,47 +5420,47 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H82" t="n">
         <v>1</v>
       </c>
       <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
         <v>8</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -5481,35 +5481,35 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>11:33 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H83" t="n">
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -5542,47 +5542,47 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Lassina Traore</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O84" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85">
@@ -5603,35 +5603,35 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:53 - 1st Half</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -5640,10 +5640,10 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -5664,29 +5664,29 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Brandon Walker</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -5695,16 +5695,16 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -5725,22 +5725,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -5762,10 +5762,10 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -5786,22 +5786,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>4:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -5847,17 +5847,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -5884,10 +5884,10 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5933,22 +5933,22 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -5969,12 +5969,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Luke Northweather</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5984,11 +5984,11 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>11:33 - 1st Half</t>
+          <t>7:53 - 1st Half</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -6030,38 +6030,38 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>12:05 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
@@ -6091,22 +6091,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>7:53 - 1st Half</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -6116,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -6152,22 +6152,22 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Jaylon Dean-Vines</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -6213,22 +6213,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>12:05 - 2nd Half</t>
+          <t>4:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -6250,10 +6250,10 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
@@ -6274,22 +6274,22 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Jaylon Dean-Vines</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>11:33 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -6311,10 +6311,10 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -6396,35 +6396,35 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:53 - 1st Half</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>2</v>
       </c>
       <c r="O98" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
@@ -6457,46 +6457,107 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2</v>
+      </c>
+      <c r="O99" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>Elijah Strong</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>SC@TA&amp;M</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>10:25 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>4:08 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
         <v>-6</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="n">
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6544,79 +6605,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -6626,7 +6687,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,14 +555,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6:51 - 2nd Half</t>
+          <t>2:23 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" t="n">
         <v>6</v>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6:51 - 2nd Half</t>
+          <t>2:23 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -641,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -677,14 +677,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7:53 - 1st Half</t>
+          <t>2:59 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -784,47 +784,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:23 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
         <v>4</v>
       </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -845,47 +845,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -921,18 +921,18 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
         <v>6</v>
       </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -982,11 +982,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:53 - 1st Half</t>
+          <t>2:59 - 1st Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -1043,14 +1043,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H10" t="n">
+        <v>27</v>
+      </c>
+      <c r="I10" t="n">
         <v>26</v>
-      </c>
-      <c r="I10" t="n">
-        <v>24</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -1068,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1287,20 +1287,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7:53 - 1st Half</t>
+          <t>2:59 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -1409,17 +1409,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>7:53 - 1st Half</t>
+          <t>2:59 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
+        <v>11</v>
+      </c>
+      <c r="I16" t="n">
         <v>8</v>
       </c>
-      <c r="I16" t="n">
-        <v>6</v>
-      </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1516,47 +1516,47 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:59 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1577,47 +1577,47 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>7:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1775,17 +1775,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>7:53 - 1st Half</t>
+          <t>2:59 - 1st Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -1897,14 +1897,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
         <v>5</v>
@@ -1913,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
@@ -1958,23 +1958,23 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>7:53 - 1st Half</t>
+          <t>2:59 - 1st Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
         <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2019,17 +2019,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>7:53 - 1st Half</t>
+          <t>2:59 - 1st Half</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -2202,11 +2202,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>7:53 - 1st Half</t>
+          <t>2:59 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
         <v>7</v>
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -2263,17 +2263,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>6:51 - 2nd Half</t>
+          <t>2:23 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>14</v>
       </c>
       <c r="I30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -2324,14 +2324,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>6:51 - 2nd Half</t>
+          <t>2:23 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
+        <v>13</v>
+      </c>
+      <c r="I31" t="n">
         <v>12</v>
-      </c>
-      <c r="I31" t="n">
-        <v>10</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>7:53 - 1st Half</t>
+          <t>2:59 - 1st Half</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -2395,7 +2395,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2407,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -2446,17 +2446,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6:51 - 2nd Half</t>
+          <t>2:23 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I33" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
         <v>2</v>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -2568,11 +2568,11 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>6:51 - 2nd Half</t>
+          <t>2:23 - 2nd Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
         <v>5</v>
@@ -2593,7 +2593,7 @@
         <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
@@ -2690,17 +2690,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I37" t="n">
         <v>16</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K37" t="n">
         <v>5</v>
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I38" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
@@ -2812,17 +2812,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>6:51 - 2nd Half</t>
+          <t>2:23 - 2nd Half</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I39" t="n">
         <v>9</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
         <v>3</v>
@@ -2837,7 +2837,7 @@
         <v>4</v>
       </c>
       <c r="O39" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>7:53 - 1st Half</t>
+          <t>2:59 - 1st Half</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>4:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3014,13 +3014,13 @@
         <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
@@ -3056,11 +3056,11 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>4:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I43" t="n">
         <v>5</v>
@@ -3069,7 +3069,7 @@
         <v>5</v>
       </c>
       <c r="K43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
@@ -3081,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="O43" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
@@ -3117,11 +3117,11 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>7:53 - 1st Half</t>
+          <t>2:59 - 1st Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I44" t="n">
         <v>2</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -3239,11 +3239,11 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>4:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I46" t="n">
         <v>9</v>
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3361,32 +3361,32 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>4:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I48" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N48" t="n">
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3422,32 +3422,32 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>4:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>17</v>
       </c>
       <c r="I49" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O49" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
@@ -3529,47 +3529,47 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:59 - 1st Half</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I51" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J51" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
         <v>3</v>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -3590,47 +3590,47 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>4:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I52" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
@@ -3651,17 +3651,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3670,16 +3670,16 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I53" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
@@ -3712,35 +3712,35 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I54" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -3749,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -3773,17 +3773,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3792,16 +3792,16 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
@@ -3834,12 +3834,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3849,32 +3849,32 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>6:51 - 2nd Half</t>
+          <t>2:23 - 2nd Half</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J56" t="n">
         <v>2</v>
       </c>
       <c r="K56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3917,25 +3917,25 @@
         <v>8</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J57" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -3956,17 +3956,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3978,10 +3978,10 @@
         <v>8</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
         <v>2</v>
@@ -3990,13 +3990,13 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -4017,12 +4017,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4039,25 +4039,25 @@
         <v>8</v>
       </c>
       <c r="I59" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O59" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
@@ -4078,47 +4078,47 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>6:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H60" t="n">
         <v>8</v>
       </c>
       <c r="I60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
+        <v>8</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="n">
         <v>3</v>
       </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="n">
-        <v>1</v>
-      </c>
       <c r="O60" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4161,25 +4161,25 @@
         <v>8</v>
       </c>
       <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
         <v>3</v>
       </c>
-      <c r="J61" t="n">
-        <v>2</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
       <c r="O61" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
@@ -4200,22 +4200,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:23 - 2nd Half</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -4225,7 +4225,7 @@
         <v>6</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -4237,10 +4237,10 @@
         <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4283,25 +4283,25 @@
         <v>8</v>
       </c>
       <c r="I63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
+        <v>2</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
         <v>3</v>
       </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
@@ -4322,47 +4322,47 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>6:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4402,16 +4402,16 @@
         </is>
       </c>
       <c r="H65" t="n">
+        <v>8</v>
+      </c>
+      <c r="I65" t="n">
         <v>6</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5</v>
       </c>
       <c r="J65" t="n">
         <v>3</v>
       </c>
       <c r="K65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -4420,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -4444,47 +4444,47 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>4:08 - 2nd Half</t>
+          <t>2:23 - 2nd Half</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4527,13 +4527,13 @@
         <v>6</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J67" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -4542,10 +4542,10 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
@@ -4566,38 +4566,38 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>7:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H68" t="n">
         <v>6</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -4627,33 +4627,33 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:59 - 1st Half</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I69" t="n">
+        <v>4</v>
+      </c>
+      <c r="J69" t="n">
         <v>3</v>
       </c>
-      <c r="J69" t="n">
-        <v>4</v>
-      </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
@@ -4661,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -4688,47 +4688,47 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>4:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H70" t="n">
         <v>5</v>
       </c>
       <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="n">
         <v>4</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -4749,32 +4749,32 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>7:53 - 1st Half</t>
+          <t>2:23 - 2nd Half</t>
         </is>
       </c>
       <c r="H71" t="n">
         <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -4783,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
@@ -4810,17 +4810,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4829,28 +4829,28 @@
         </is>
       </c>
       <c r="H72" t="n">
+        <v>5</v>
+      </c>
+      <c r="I72" t="n">
         <v>4</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
       <c r="J72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
         <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
@@ -4871,22 +4871,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>6:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -4896,19 +4896,19 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
         <v>13</v>
@@ -4932,47 +4932,47 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:23 - 2nd Half</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K74" t="n">
         <v>2</v>
       </c>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -4993,35 +4993,35 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>4:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H75" t="n">
         <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L75" t="n">
         <v>1</v>
@@ -5030,10 +5030,10 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O75" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
@@ -5054,17 +5054,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5076,16 +5076,16 @@
         <v>3</v>
       </c>
       <c r="I76" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
         <v>4</v>
       </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -5094,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="O76" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5130,17 +5130,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>6:51 - 2nd Half</t>
+          <t>2:23 - 2nd Half</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -5176,32 +5176,32 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>4:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -5213,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
@@ -5237,32 +5237,32 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>6:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H79" t="n">
         <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -5298,32 +5298,32 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Amier Ali</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:23 - 2nd Half</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
@@ -5359,22 +5359,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Amier Ali</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>6:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -5384,13 +5384,13 @@
         <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -5420,7 +5420,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5435,23 +5435,23 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>6:51 - 2nd Half</t>
+          <t>2:23 - 2nd Half</t>
         </is>
       </c>
       <c r="H82" t="n">
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>6:51 - 2nd Half</t>
+          <t>2:23 - 2nd Half</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -5582,7 +5582,7 @@
         <v>2</v>
       </c>
       <c r="O84" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85">
@@ -5603,47 +5603,47 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Brandon Walker</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>7:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
@@ -5664,17 +5664,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5686,16 +5686,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>1</v>
       </c>
       <c r="O86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -5725,17 +5725,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -5762,10 +5762,10 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -5786,22 +5786,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>4:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -5847,17 +5847,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>7:53 - 1st Half</t>
+          <t>2:59 - 1st Half</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -6030,47 +6030,47 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:59 - 1st Half</t>
         </is>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O92" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
@@ -6091,38 +6091,38 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>7:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>6:51 - 2nd Half</t>
+          <t>2:23 - 2nd Half</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -6213,22 +6213,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Jaylon Dean-Vines</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>4:08 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -6274,32 +6274,32 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Jaylon Dean-Vines</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:59 - 1st Half</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -6311,10 +6311,10 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>7:53 - 1st Half</t>
+          <t>2:59 - 1st Half</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -6457,17 +6457,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -6476,16 +6476,16 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -6494,10 +6494,10 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O99" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
@@ -6518,46 +6518,107 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2</v>
+      </c>
+      <c r="O100" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>Elijah Strong</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>SC@TA&amp;M</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>4:08 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
         <v>-6</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0</v>
-      </c>
-      <c r="O100" t="n">
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6622,7 +6683,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -6631,27 +6692,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -6661,7 +6722,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -6670,11 +6731,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -6683,11 +6744,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2:23 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -616,14 +616,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2:23 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
         <v>8</v>
@@ -641,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -677,17 +677,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2:59 - 1st Half</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -723,17 +723,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -742,28 +742,28 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
         <v>4</v>
       </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -784,47 +784,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2:23 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
         <v>2</v>
       </c>
-      <c r="K6" t="n">
-        <v>4</v>
-      </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -982,11 +982,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2:59 - 1st Half</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1150,35 +1150,35 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1211,17 +1211,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -1272,38 +1272,38 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2:59 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H14" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
         <v>3</v>
       </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -1394,47 +1394,47 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2:59 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -1531,14 +1531,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2:59 - 1st Half</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
+        <v>9</v>
+      </c>
+      <c r="I18" t="n">
         <v>6</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4</v>
       </c>
       <c r="J18" t="n">
         <v>3</v>
@@ -1550,13 +1550,13 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1775,14 +1775,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2:59 - 1st Half</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>11</v>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J22" t="n">
         <v>3</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2:59 - 1st Half</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2:59 - 1st Half</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2202,20 +2202,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2:59 - 1st Half</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -2248,12 +2248,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2263,32 +2263,32 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2:23 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>14</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2:23 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -2334,22 +2334,22 @@
         <v>12</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
@@ -2385,17 +2385,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2:59 - 1st Half</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2446,32 +2446,32 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2:23 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I33" t="n">
         <v>26</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
         <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2:23 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -2812,17 +2812,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2:23 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
         <v>9</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
         <v>3</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O39" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2:59 - 1st Half</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -3117,20 +3117,20 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2:59 - 1st Half</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -3468,17 +3468,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3490,16 +3490,16 @@
         <v>14</v>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J50" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -3529,38 +3529,38 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2:59 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
@@ -3712,47 +3712,47 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
+        <v>10</v>
+      </c>
+      <c r="I54" t="n">
         <v>9</v>
       </c>
-      <c r="I54" t="n">
-        <v>5</v>
-      </c>
       <c r="J54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
         <v>2</v>
       </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1</v>
-      </c>
       <c r="O54" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
@@ -3773,17 +3773,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3798,22 +3798,22 @@
         <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
@@ -3834,12 +3834,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3849,32 +3849,32 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2:23 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>9</v>
       </c>
       <c r="I56" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J56" t="n">
         <v>2</v>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
@@ -3895,12 +3895,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3914,28 +3914,28 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I57" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
@@ -3956,17 +3956,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3978,25 +3978,25 @@
         <v>8</v>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4039,25 +4039,25 @@
         <v>8</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
         <v>10</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2</v>
-      </c>
-      <c r="O59" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="60">
@@ -4078,17 +4078,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4103,22 +4103,22 @@
         <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
         <v>2</v>
       </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>2</v>
-      </c>
-      <c r="N60" t="n">
-        <v>3</v>
-      </c>
       <c r="O60" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4161,10 +4161,10 @@
         <v>8</v>
       </c>
       <c r="I61" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K61" t="n">
         <v>2</v>
@@ -4173,13 +4173,13 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
         <v>3</v>
       </c>
       <c r="O61" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
@@ -4200,47 +4200,47 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2:23 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
         <v>8</v>
       </c>
       <c r="I62" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J62" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
         <v>3</v>
       </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1</v>
-      </c>
       <c r="O62" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
@@ -4261,17 +4261,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4283,25 +4283,25 @@
         <v>8</v>
       </c>
       <c r="I63" t="n">
+        <v>6</v>
+      </c>
+      <c r="J63" t="n">
         <v>3</v>
       </c>
-      <c r="J63" t="n">
-        <v>2</v>
-      </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
@@ -4322,32 +4322,32 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H64" t="n">
         <v>8</v>
       </c>
       <c r="I64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -4356,13 +4356,13 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -4383,12 +4383,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4405,25 +4405,25 @@
         <v>8</v>
       </c>
       <c r="I65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
         <v>3</v>
       </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
@@ -4444,47 +4444,47 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2:23 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I66" t="n">
+        <v>6</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
         <v>4</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2</v>
-      </c>
-      <c r="K66" t="n">
-        <v>3</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -4505,17 +4505,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="H67" t="n">
+        <v>8</v>
+      </c>
+      <c r="I67" t="n">
         <v>6</v>
-      </c>
-      <c r="I67" t="n">
-        <v>5</v>
       </c>
       <c r="J67" t="n">
         <v>3</v>
       </c>
       <c r="K67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -4542,10 +4542,10 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4588,13 +4588,13 @@
         <v>6</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J68" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4603,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
@@ -4627,32 +4627,32 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2:59 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H69" t="n">
         <v>6</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4661,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2:23 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2:23 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2:23 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -5237,32 +5237,32 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Sebastian Mack</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -5298,32 +5298,32 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2:23 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H80" t="n">
         <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -5359,17 +5359,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Amier Ali</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5378,13 +5378,13 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
         <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -5420,38 +5420,38 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Amier Ali</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2:23 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H82" t="n">
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
@@ -5481,17 +5481,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5503,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
@@ -5542,35 +5542,35 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2:23 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H84" t="n">
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -5579,10 +5579,10 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
@@ -5603,17 +5603,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Lassina Traore</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5622,28 +5622,28 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
         <v>2</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O85" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
@@ -5664,26 +5664,26 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -5701,10 +5701,10 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -5725,17 +5725,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Brandon Walker</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -5756,16 +5756,16 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -5786,17 +5786,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -5823,10 +5823,10 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -5847,12 +5847,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5887,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -5908,17 +5908,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -5945,10 +5945,10 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -5969,22 +5969,22 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Luke Northweather</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2:59 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -6030,35 +6030,35 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2:59 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="O92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -6091,22 +6091,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Luke Northweather</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -6116,13 +6116,13 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -6152,38 +6152,38 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2:23 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -6213,22 +6213,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Jaylon Dean-Vines</t>
+          <t>Annor Boateng</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95" t="n">
         <v>2</v>
@@ -6274,32 +6274,32 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2:59 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -6311,10 +6311,10 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
@@ -6335,17 +6335,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Jaylon Dean-Vines</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6354,7 +6354,7 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -6411,20 +6411,20 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2:59 - 1st Half</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -6433,10 +6433,10 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O98" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
@@ -6457,32 +6457,32 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="O99" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
@@ -6518,17 +6518,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -6537,16 +6537,16 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -6555,10 +6555,10 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -6579,46 +6579,229 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t>Grant Polk</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Trent Pierce</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>12:56 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>2</v>
+      </c>
+      <c r="O102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2</v>
+      </c>
+      <c r="O103" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>Elijah Strong</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>SC@TA&amp;M</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H101" t="n">
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
         <v>-6</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0</v>
-      </c>
-      <c r="O101" t="n">
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6666,27 +6849,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6696,7 +6879,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
@@ -6709,7 +6892,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -6718,27 +6901,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -677,11 +677,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
         <v>11</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -982,14 +982,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1089,35 +1089,35 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -1150,35 +1150,35 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -1348,20 +1348,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J15" t="n">
         <v>9</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -1531,17 +1531,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1775,17 +1775,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -1958,14 +1958,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -2202,11 +2202,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I29" t="n">
         <v>11</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -3117,11 +3117,11 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
@@ -3590,47 +3590,47 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H52" t="n">
+        <v>14</v>
+      </c>
+      <c r="I52" t="n">
         <v>11</v>
       </c>
-      <c r="I52" t="n">
-        <v>6</v>
-      </c>
       <c r="J52" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
         <v>3</v>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
@@ -3651,17 +3651,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3673,25 +3673,25 @@
         <v>11</v>
       </c>
       <c r="I53" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K53" t="n">
         <v>3</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O53" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
@@ -3712,47 +3712,47 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J54" t="n">
+        <v>4</v>
+      </c>
+      <c r="K54" t="n">
         <v>3</v>
       </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
@@ -3773,47 +3773,47 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J55" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N55" t="n">
         <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3856,25 +3856,25 @@
         <v>9</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
+        <v>5</v>
+      </c>
+      <c r="K56" t="n">
         <v>2</v>
       </c>
-      <c r="K56" t="n">
-        <v>4</v>
-      </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3917,16 +3917,16 @@
         <v>9</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3975,28 +3975,28 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I58" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
@@ -4017,17 +4017,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4039,25 +4039,25 @@
         <v>8</v>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
@@ -4078,7 +4078,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4100,25 +4100,25 @@
         <v>8</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
         <v>10</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>2</v>
-      </c>
-      <c r="O60" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="61">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4164,22 +4164,22 @@
         <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
         <v>2</v>
       </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2</v>
-      </c>
-      <c r="N61" t="n">
-        <v>3</v>
-      </c>
       <c r="O61" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
@@ -4200,17 +4200,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4222,10 +4222,10 @@
         <v>8</v>
       </c>
       <c r="I62" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K62" t="n">
         <v>2</v>
@@ -4234,13 +4234,13 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N62" t="n">
         <v>3</v>
       </c>
       <c r="O62" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
@@ -4261,17 +4261,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4283,25 +4283,25 @@
         <v>8</v>
       </c>
       <c r="I63" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J63" t="n">
+        <v>2</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
         <v>3</v>
       </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="n">
-        <v>1</v>
-      </c>
       <c r="O63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
@@ -4322,32 +4322,32 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H64" t="n">
         <v>8</v>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -4356,13 +4356,13 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
         <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -6640,35 +6640,35 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>12:56 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -6680,7 +6680,7 @@
         <v>2</v>
       </c>
       <c r="O102" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103">
@@ -6701,35 +6701,35 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>8:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H103" t="n">
         <v>-4</v>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -6741,7 +6741,7 @@
         <v>2</v>
       </c>
       <c r="O103" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
@@ -6853,7 +6853,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -6905,7 +6905,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,10 +431,10 @@
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="24" customWidth="1" min="4" max="4"/>
+    <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -677,17 +677,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>13</v>
+      </c>
+      <c r="I4" t="n">
         <v>12</v>
       </c>
-      <c r="I4" t="n">
-        <v>11</v>
-      </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -982,7 +982,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1084,52 +1084,52 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>11:42 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1145,37 +1145,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:42 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1211,36 +1211,36 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
         <v>5</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1291,28 +1291,28 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -1323,45 +1323,45 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -1384,27 +1384,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1413,28 +1413,28 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>2</v>
       </c>
-      <c r="L16" t="n">
-        <v>3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
       <c r="O16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1455,47 +1455,47 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:42 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1511,17 +1511,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1531,32 +1531,32 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
+        <v>26</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
         <v>10</v>
       </c>
-      <c r="I18" t="n">
-        <v>7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4</v>
-      </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -1572,34 +1572,34 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:42 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
@@ -1611,13 +1611,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1633,22 +1633,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="I20" t="n">
+        <v>13</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
         <v>3</v>
       </c>
-      <c r="J20" t="n">
-        <v>3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -1689,17 +1689,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1718,28 +1718,28 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -1750,22 +1750,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1775,14 +1775,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>12</v>
       </c>
       <c r="I22" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
         <v>4</v>
@@ -1791,16 +1791,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1821,17 +1821,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1840,28 +1840,28 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1882,17 +1882,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1901,28 +1901,28 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="I24" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>2</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
       <c r="O24" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -1938,17 +1938,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1958,23 +1958,23 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -1999,34 +1999,34 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -2035,16 +2035,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>2</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1</v>
-      </c>
       <c r="O26" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2065,47 +2065,47 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:42 - 1st Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
         <v>3</v>
       </c>
-      <c r="K27" t="n">
-        <v>4</v>
-      </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2126,47 +2126,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:42 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -2177,57 +2177,57 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I29" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
         <v>3</v>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2248,17 +2248,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2267,19 +2267,19 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I30" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2309,47 +2309,47 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2370,12 +2370,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2385,23 +2385,23 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2431,17 +2431,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2450,28 +2450,28 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I33" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O33" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2492,47 +2492,47 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O34" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2553,17 +2553,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2572,28 +2572,28 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I35" t="n">
         <v>5</v>
       </c>
       <c r="J35" t="n">
+        <v>9</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
         <v>2</v>
       </c>
-      <c r="K35" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
@@ -2604,27 +2604,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2675,17 +2675,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2694,19 +2694,19 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I37" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2736,38 +2736,38 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2797,47 +2797,47 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:42 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>5</v>
-      </c>
-      <c r="O39" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="40">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2858,22 +2858,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>11:42 - 1st Half</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2919,17 +2919,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2938,28 +2938,28 @@
         </is>
       </c>
       <c r="H41" t="n">
+        <v>32</v>
+      </c>
+      <c r="I41" t="n">
         <v>26</v>
       </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
       <c r="J41" t="n">
+        <v>6</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
         <v>5</v>
       </c>
-      <c r="K41" t="n">
-        <v>5</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O41" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2980,17 +2980,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2999,28 +2999,28 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I42" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3041,17 +3041,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3060,28 +3060,28 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
         <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O43" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3102,29 +3102,29 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -3133,16 +3133,16 @@
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O44" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
@@ -3153,57 +3153,57 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:42 - 1st Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3243,19 +3243,19 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I46" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3285,17 +3285,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3304,28 +3304,28 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3365,28 +3365,28 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O48" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3407,47 +3407,47 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="I49" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -3458,27 +3458,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3487,19 +3487,19 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I50" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -3519,27 +3519,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3548,28 +3548,28 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I51" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
@@ -3580,57 +3580,57 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I52" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
         <v>5</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
         <v>3</v>
       </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
       <c r="N52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
@@ -3641,57 +3641,57 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I53" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J53" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3712,17 +3712,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3731,28 +3731,28 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I54" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
+        <v>8</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
         <v>4</v>
       </c>
-      <c r="K54" t="n">
-        <v>3</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
       <c r="N54" t="n">
         <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3773,47 +3773,47 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I55" t="n">
+        <v>9</v>
+      </c>
+      <c r="J55" t="n">
         <v>4</v>
       </c>
-      <c r="J55" t="n">
-        <v>6</v>
-      </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
         <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3834,35 +3834,35 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:42 - 1st Half</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I56" t="n">
         <v>5</v>
       </c>
       <c r="J56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3871,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3895,47 +3895,47 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:42 - 1st Half</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
         <v>2</v>
-      </c>
-      <c r="K57" t="n">
-        <v>4</v>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="58">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3956,17 +3956,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3975,28 +3975,28 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O58" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4036,10 +4036,10 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I59" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J59" t="n">
         <v>2</v>
@@ -4051,13 +4051,13 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -4078,47 +4078,47 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K60" t="n">
         <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O60" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4158,16 +4158,16 @@
         </is>
       </c>
       <c r="H61" t="n">
+        <v>17</v>
+      </c>
+      <c r="I61" t="n">
         <v>8</v>
       </c>
-      <c r="I61" t="n">
-        <v>3</v>
-      </c>
       <c r="J61" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L61" t="n">
         <v>1</v>
@@ -4179,7 +4179,7 @@
         <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
@@ -4200,17 +4200,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4219,28 +4219,28 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I62" t="n">
+        <v>11</v>
+      </c>
+      <c r="J62" t="n">
         <v>3</v>
       </c>
-      <c r="J62" t="n">
-        <v>8</v>
-      </c>
       <c r="K62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
@@ -4261,17 +4261,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4280,16 +4280,16 @@
         </is>
       </c>
       <c r="H63" t="n">
+        <v>14</v>
+      </c>
+      <c r="I63" t="n">
         <v>8</v>
       </c>
-      <c r="I63" t="n">
-        <v>11</v>
-      </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -4298,10 +4298,10 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
@@ -4322,47 +4322,47 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
+        <v>9</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
         <v>3</v>
       </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O64" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4402,28 +4402,28 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I65" t="n">
+        <v>6</v>
+      </c>
+      <c r="J65" t="n">
+        <v>7</v>
+      </c>
+      <c r="K65" t="n">
         <v>3</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="n">
         <v>2</v>
       </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
-      </c>
       <c r="O65" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
@@ -4444,17 +4444,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4463,28 +4463,28 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I66" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67">
@@ -4505,17 +4505,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -4542,10 +4542,10 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -4566,17 +4566,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4585,28 +4585,28 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
         <v>4</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
@@ -4627,17 +4627,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4646,28 +4646,28 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J69" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -4688,17 +4688,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4707,13 +4707,13 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
@@ -4749,17 +4749,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4768,28 +4768,28 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I71" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -4810,17 +4810,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4829,13 +4829,13 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -4847,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O72" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
@@ -4871,17 +4871,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4890,28 +4890,28 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O73" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
@@ -4932,17 +4932,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4951,28 +4951,28 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K74" t="n">
         <v>2</v>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O74" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -4993,17 +4993,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5012,28 +5012,28 @@
         </is>
       </c>
       <c r="H75" t="n">
+        <v>8</v>
+      </c>
+      <c r="I75" t="n">
+        <v>6</v>
+      </c>
+      <c r="J75" t="n">
         <v>3</v>
       </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
       <c r="K75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -5054,17 +5054,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5073,28 +5073,28 @@
         </is>
       </c>
       <c r="H76" t="n">
+        <v>8</v>
+      </c>
+      <c r="I76" t="n">
         <v>3</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77">
@@ -5115,17 +5115,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5134,28 +5134,28 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
         <v>4</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5195,14 +5195,14 @@
         </is>
       </c>
       <c r="H78" t="n">
+        <v>8</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6</v>
+      </c>
+      <c r="J78" t="n">
         <v>3</v>
       </c>
-      <c r="I78" t="n">
-        <v>9</v>
-      </c>
-      <c r="J78" t="n">
-        <v>4</v>
-      </c>
       <c r="K78" t="n">
         <v>0</v>
       </c>
@@ -5213,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -5237,36 +5237,36 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H79" t="n">
+        <v>6</v>
+      </c>
+      <c r="I79" t="n">
+        <v>5</v>
+      </c>
+      <c r="J79" t="n">
         <v>3</v>
       </c>
-      <c r="I79" t="n">
+      <c r="K79" t="n">
         <v>4</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
       <c r="L79" t="n">
         <v>0</v>
       </c>
@@ -5274,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
@@ -5298,17 +5298,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5317,13 +5317,13 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
@@ -5359,17 +5359,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5378,13 +5378,13 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I81" t="n">
         <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -5420,17 +5420,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Amier Ali</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5439,13 +5439,13 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
@@ -5481,17 +5481,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5500,13 +5500,13 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I83" t="n">
         <v>4</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -5518,10 +5518,10 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
@@ -5542,17 +5542,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5561,13 +5561,13 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -5576,13 +5576,13 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5622,28 +5622,28 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
+        <v>4</v>
+      </c>
+      <c r="K85" t="n">
         <v>2</v>
       </c>
-      <c r="K85" t="n">
-        <v>1</v>
-      </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
@@ -5664,47 +5664,47 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O86" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
@@ -5725,17 +5725,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5744,16 +5744,16 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L87" t="n">
         <v>1</v>
@@ -5765,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="O87" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
@@ -5786,17 +5786,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -5823,10 +5823,10 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -5847,17 +5847,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -5866,13 +5866,13 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -5884,10 +5884,10 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
@@ -5908,29 +5908,29 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Sebastian Mack</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -5969,12 +5969,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5988,13 +5988,13 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -6030,17 +6030,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6049,13 +6049,13 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -6067,10 +6067,10 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93">
@@ -6091,32 +6091,32 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Luke Northweather</t>
+          <t>Amier Ali</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
@@ -6152,38 +6152,38 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:42 - 1st Half</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -6213,29 +6213,29 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -6244,16 +6244,16 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
@@ -6274,17 +6274,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6293,10 +6293,10 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
@@ -6335,17 +6335,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Jaylon Dean-Vines</t>
+          <t>Lassina Traore</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6354,16 +6354,16 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -6372,10 +6372,10 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O97" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
@@ -6396,35 +6396,35 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>11:42 - 1st Half</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
         <v>6</v>
@@ -6457,12 +6457,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -6472,11 +6472,11 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -6494,10 +6494,10 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -6518,17 +6518,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Brandon Walker</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -6537,10 +6537,10 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -6549,16 +6549,16 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O100" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
@@ -6579,17 +6579,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6598,13 +6598,13 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="O101" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
@@ -6640,17 +6640,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6659,16 +6659,16 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -6677,10 +6677,10 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
@@ -6701,32 +6701,32 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>8:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -6738,10 +6738,10 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
         <v>2</v>
-      </c>
-      <c r="O103" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="104">
@@ -6762,46 +6762,961 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
+          <t>Jordan Butler</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Kezza Giffa</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Luke Northweather</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>End of 2nd Half</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Travis Perry</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Trent Pierce</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>End of 2nd Half</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>4</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>2</v>
+      </c>
+      <c r="O108" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Urban Klavzar</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>AUB@FLA</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>11:42 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Annor Boateng</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>End of 2nd Half</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Dylan James</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>UGA@TEX</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Filip Jović</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>AUB@FLA</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>11:42 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Jaylon Dean-Vines</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>End of 2nd Half</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Dayton Forsythe</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>End of 2nd Half</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+      <c r="O115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Koren Johnson</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Grant Polk</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+      <c r="O117" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I118" t="n">
+        <v>2</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>2</v>
+      </c>
+      <c r="O118" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>Elijah Strong</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>SC@TA&amp;M</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H104" t="n">
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
         <v>-6</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0</v>
-      </c>
-      <c r="O104" t="n">
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6849,40 +7764,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6892,7 +7807,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -6901,14 +7816,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -6918,10 +7833,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -6931,10 +7846,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O119"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -982,17 +982,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -1104,17 +1104,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>11:42 - 1st Half</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" t="n">
         <v>6</v>
       </c>
-      <c r="I11" t="n">
-        <v>4</v>
-      </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11:42 - 1st Half</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>5</v>
@@ -1251,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11:42 - 1st Half</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1531,14 +1531,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>26</v>
       </c>
       <c r="I18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J18" t="n">
         <v>10</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -1592,32 +1592,32 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11:42 - 1st Half</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
         <v>2</v>
       </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -1699,47 +1699,47 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -1760,47 +1760,47 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>12</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I25" t="n">
         <v>20</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11:42 - 1st Half</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -2141,11 +2141,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>11:42 - 1st Half</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2163,10 +2163,10 @@
         <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -2507,20 +2507,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>13</v>
       </c>
       <c r="I34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
@@ -2532,7 +2532,7 @@
         <v>4</v>
       </c>
       <c r="O34" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2797,12 +2797,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2812,32 +2812,32 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>11:42 - 1st Half</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
+        <v>4</v>
+      </c>
+      <c r="I39" t="n">
         <v>3</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>2</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
       <c r="O39" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2873,14 +2873,14 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11:42 - 1st Half</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2889,16 +2889,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -3041,47 +3041,47 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H43" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" t="n">
         <v>4</v>
       </c>
-      <c r="I43" t="n">
-        <v>5</v>
-      </c>
       <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
         <v>2</v>
       </c>
-      <c r="K43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -3102,17 +3102,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3121,13 +3121,13 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -3139,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O44" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -3163,47 +3163,47 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>11:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O45" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -3447,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
@@ -3849,17 +3849,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>11:42 - 1st Half</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I56" t="n">
         <v>5</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
@@ -3871,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3910,11 +3910,11 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11:42 - 1st Half</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -3926,16 +3926,16 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -4093,17 +4093,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H60" t="n">
         <v>20</v>
       </c>
       <c r="I60" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K60" t="n">
         <v>2</v>
@@ -4115,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O60" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -4362,7 +4362,7 @@
         <v>2</v>
       </c>
       <c r="O64" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -6091,32 +6091,32 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Amier Ali</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
         <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -6152,32 +6152,32 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Amier Ali</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>11:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H94" t="n">
         <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>11:42 - 1st Half</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -6518,29 +6518,29 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -6549,16 +6549,16 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -6579,17 +6579,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Brandon Walker</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6601,16 +6601,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="O101" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
@@ -6640,17 +6640,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -6677,10 +6677,10 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O102" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
@@ -6701,17 +6701,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -6762,22 +6762,22 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -6823,17 +6823,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -6860,10 +6860,10 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -6884,22 +6884,22 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Luke Northweather</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -6924,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -6970,22 +6970,22 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O107" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Luke Northweather</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7021,20 +7021,20 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -7043,10 +7043,10 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -7067,22 +7067,22 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>11:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -7092,13 +7092,13 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>11:42 - 1st Half</t>
+          <t>6:08 - 1st Half</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -7275,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -7433,12 +7433,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -7448,20 +7448,20 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
@@ -7470,10 +7470,10 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O115" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116">
@@ -7494,22 +7494,22 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:35 - OT</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O116" t="n">
         <v>5</v>
@@ -7555,17 +7555,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -7574,13 +7574,13 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
@@ -7592,10 +7592,10 @@
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O117" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
@@ -7616,17 +7616,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -7635,16 +7635,16 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
         <v>2</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
       <c r="K118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
@@ -7653,10 +7653,10 @@
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O118" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
@@ -7677,46 +7677,107 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>2</v>
+      </c>
+      <c r="O119" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>Elijah Strong</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>SC@TA&amp;M</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H119" t="n">
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
         <v>-6</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0</v>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0</v>
-      </c>
-      <c r="O119" t="n">
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7777,11 +7838,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -7790,11 +7851,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -7803,27 +7864,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -7833,7 +7894,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -784,47 +784,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -845,17 +845,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -864,28 +864,28 @@
         </is>
       </c>
       <c r="H7" t="n">
+        <v>12</v>
+      </c>
+      <c r="I7" t="n">
         <v>10</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -906,47 +906,47 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2:44 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
         <v>4</v>
       </c>
-      <c r="J8" t="n">
-        <v>5</v>
-      </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1043,15 +1043,15 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2:44 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
         <v>4</v>
       </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11:14 - 2nd Half</t>
+          <t>7:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -1287,23 +1287,23 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11:14 - 2nd Half</t>
+          <t>7:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2:44 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1358,13 +1358,13 @@
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2:44 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1714,17 +1714,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>11:14 - 2nd Half</t>
+          <t>7:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1836,11 +1836,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11:14 - 2nd Half</t>
+          <t>7:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I23" t="n">
         <v>24</v>
@@ -1858,10 +1858,10 @@
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -1958,11 +1958,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2:44 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
@@ -1983,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2370,38 +2370,38 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2:44 - 1st Half</t>
+          <t>7:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
+        <v>9</v>
+      </c>
+      <c r="I32" t="n">
         <v>8</v>
       </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
       <c r="J32" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" t="n">
         <v>4</v>
       </c>
-      <c r="K32" t="n">
-        <v>2</v>
-      </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -2431,38 +2431,38 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>11:14 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>11:14 - 2nd Half</t>
+          <t>7:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -2529,10 +2529,10 @@
         <v>3</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O34" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -2812,17 +2812,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2:44 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -3056,20 +3056,20 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2:44 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>11:14 - 2nd Half</t>
+          <t>7:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2:44 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11:14 - 2nd Half</t>
+          <t>7:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11:14 - 2nd Half</t>
+          <t>7:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
@@ -4337,14 +4337,14 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>11:14 - 2nd Half</t>
+          <t>7:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H64" t="n">
         <v>8</v>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J64" t="n">
         <v>3</v>
@@ -4362,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65">
@@ -4459,7 +4459,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2:44 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -4469,7 +4469,7 @@
         <v>8</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
@@ -4484,7 +4484,7 @@
         <v>2</v>
       </c>
       <c r="O66" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2:44 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -4566,35 +4566,35 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>11:14 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4603,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O68" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -4627,35 +4627,35 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H69" t="n">
         <v>-1</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4664,10 +4664,10 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O69" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
@@ -5054,44 +5054,44 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I76" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J76" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
         <v>22</v>
@@ -5115,17 +5115,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5137,25 +5137,25 @@
         <v>11</v>
       </c>
       <c r="I77" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K77" t="n">
         <v>3</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O77" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
@@ -5176,35 +5176,35 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>11:14 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -5213,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2:44 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2:44 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -6055,7 +6055,7 @@
         <v>4</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K92" t="n">
         <v>1</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
@@ -6457,12 +6457,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -6472,32 +6472,32 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2:44 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H99" t="n">
         <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O99" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100">
@@ -6518,38 +6518,38 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H100" t="n">
         <v>4</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
@@ -6579,17 +6579,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6598,28 +6598,28 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K101" t="n">
         <v>2</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
@@ -6640,17 +6640,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6662,13 +6662,13 @@
         <v>3</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L102" t="n">
         <v>1</v>
@@ -6677,10 +6677,10 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O102" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
@@ -6701,17 +6701,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -6726,22 +6726,22 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
         <v>4</v>
       </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O103" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
@@ -6762,47 +6762,47 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2:44 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H104" t="n">
         <v>3</v>
       </c>
       <c r="I104" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105">
@@ -7067,32 +7067,32 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Amier Ali</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2:44 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110">
@@ -7128,17 +7128,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Amier Ali</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -7150,16 +7150,16 @@
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
@@ -7189,17 +7189,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -7211,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
@@ -7229,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
@@ -7250,17 +7250,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Lassina Traore</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -7272,13 +7272,13 @@
         <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
@@ -7287,10 +7287,10 @@
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O112" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
@@ -7311,35 +7311,35 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H113" t="n">
         <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>0</v>
@@ -7348,10 +7348,10 @@
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O113" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>11:14 - 2nd Half</t>
+          <t>7:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>11:14 - 2nd Half</t>
+          <t>7:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -7534,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="O116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>11:14 - 2nd Half</t>
+          <t>7:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>11:14 - 2nd Half</t>
+          <t>7:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -8801,11 +8801,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -8814,11 +8814,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -8870,7 +8870,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
@@ -8883,7 +8883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -723,47 +723,47 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I5" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -784,47 +784,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>13</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -967,32 +967,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Marcus Hill</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>8</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -1004,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -1028,32 +1028,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Billy Richmond III</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
         <v>5</v>
       </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1226,29 +1226,29 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I13" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>31</v>
@@ -1272,12 +1272,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1287,32 +1287,32 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -1348,24 +1348,24 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
+        <v>7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
         <v>3</v>
       </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2</v>
-      </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -1455,38 +1455,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I17" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -1516,38 +1516,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1836,17 +1836,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>7:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I23" t="n">
         <v>24</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>4</v>
@@ -1861,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1958,32 +1958,32 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" t="n">
         <v>4</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>3</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1</v>
-      </c>
       <c r="O25" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>7:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -2395,10 +2395,10 @@
         <v>8</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
         <v>3</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
@@ -2446,14 +2446,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -2507,17 +2507,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>7:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -2532,7 +2532,7 @@
         <v>4</v>
       </c>
       <c r="O34" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -2736,47 +2736,47 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>10:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
         <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -2797,47 +2797,47 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -2980,47 +2980,47 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>11</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J42" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
@@ -3041,47 +3041,47 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43" t="n">
         <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
@@ -3163,17 +3163,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3185,25 +3185,25 @@
         <v>13</v>
       </c>
       <c r="I45" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
@@ -3224,47 +3224,47 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>7:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
@@ -3300,17 +3300,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I47" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
@@ -3346,47 +3346,47 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I48" t="n">
+        <v>7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
         <v>3</v>
       </c>
-      <c r="J48" t="n">
-        <v>3</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1</v>
-      </c>
       <c r="O48" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -3407,47 +3407,47 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>7:27 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H49" t="n">
+        <v>4</v>
+      </c>
+      <c r="I49" t="n">
         <v>3</v>
       </c>
-      <c r="I49" t="n">
-        <v>4</v>
-      </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -3544,17 +3544,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>7:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I51" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J51" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
@@ -4337,11 +4337,11 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>7:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I64" t="n">
         <v>6</v>
@@ -4350,7 +4350,7 @@
         <v>3</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
         <v>3</v>
@@ -4362,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
@@ -4444,33 +4444,33 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H66" t="n">
+        <v>7</v>
+      </c>
+      <c r="I66" t="n">
+        <v>11</v>
+      </c>
+      <c r="J66" t="n">
         <v>5</v>
       </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3</v>
-      </c>
       <c r="K66" t="n">
         <v>1</v>
       </c>
@@ -4481,10 +4481,10 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O66" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67">
@@ -4505,12 +4505,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4520,20 +4520,20 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -4542,10 +4542,10 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O67" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
@@ -4566,35 +4566,35 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4603,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
@@ -4627,35 +4627,35 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>7:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H69" t="n">
         <v>-1</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4664,10 +4664,10 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O69" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -5054,44 +5054,44 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>7:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I76" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O76" t="n">
         <v>22</v>
@@ -5115,17 +5115,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5137,25 +5137,25 @@
         <v>11</v>
       </c>
       <c r="I77" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J77" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K77" t="n">
         <v>3</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78">
@@ -5176,17 +5176,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5198,16 +5198,16 @@
         <v>11</v>
       </c>
       <c r="I78" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K78" t="n">
         <v>3</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
@@ -5969,12 +5969,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5984,17 +5984,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H91" t="n">
         <v>7</v>
       </c>
       <c r="I91" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
@@ -6006,10 +6006,10 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
@@ -6030,47 +6030,47 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I92" t="n">
+        <v>5</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3</v>
+      </c>
+      <c r="K92" t="n">
         <v>4</v>
       </c>
-      <c r="J92" t="n">
-        <v>2</v>
-      </c>
-      <c r="K92" t="n">
-        <v>1</v>
-      </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O92" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
@@ -6091,47 +6091,47 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H93" t="n">
         <v>6</v>
       </c>
       <c r="I93" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -6482,10 +6482,10 @@
         <v>6</v>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
         <v>1</v>
@@ -6494,10 +6494,10 @@
         <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O99" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -6543,7 +6543,7 @@
         <v>4</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K100" t="n">
         <v>1</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101">
@@ -6579,47 +6579,47 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H101" t="n">
         <v>4</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O101" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
@@ -6640,17 +6640,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6659,28 +6659,28 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K102" t="n">
         <v>2</v>
       </c>
       <c r="L102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
@@ -6701,17 +6701,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -6723,13 +6723,13 @@
         <v>3</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L103" t="n">
         <v>1</v>
@@ -6738,10 +6738,10 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O103" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
@@ -6762,17 +6762,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -6787,22 +6787,22 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
         <v>4</v>
       </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
@@ -6823,17 +6823,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -6845,7 +6845,7 @@
         <v>3</v>
       </c>
       <c r="I105" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
         <v>4</v>
@@ -6860,10 +6860,10 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106">
@@ -6884,33 +6884,33 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H106" t="n">
         <v>3</v>
       </c>
       <c r="I106" t="n">
+        <v>9</v>
+      </c>
+      <c r="J106" t="n">
         <v>4</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
       <c r="K106" t="n">
         <v>0</v>
       </c>
@@ -6921,10 +6921,10 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O106" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107">
@@ -6945,32 +6945,32 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Sebastian Mack</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
@@ -7006,17 +7006,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -7025,13 +7025,13 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -7043,10 +7043,10 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O108" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109">
@@ -7067,17 +7067,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Amier Ali</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -7086,10 +7086,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J109" t="n">
         <v>2</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
@@ -7128,7 +7128,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Amier Ali</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -7211,25 +7211,25 @@
         <v>1</v>
       </c>
       <c r="I111" t="n">
+        <v>3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
         <v>8</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="112">
@@ -7250,17 +7250,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -7272,13 +7272,13 @@
         <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
@@ -7287,10 +7287,10 @@
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
@@ -7311,29 +7311,29 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H113" t="n">
         <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -7342,16 +7342,16 @@
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O113" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
@@ -7372,32 +7372,32 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>7:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H114" t="n">
         <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -7409,10 +7409,10 @@
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O114" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
@@ -7433,22 +7433,22 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Lassina Traore</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -7458,10 +7458,10 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
@@ -7470,10 +7470,10 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O115" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
@@ -7494,32 +7494,32 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Blake Muschalek</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>7:27 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -7534,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="O116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -7555,17 +7555,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -7586,16 +7586,16 @@
         <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O117" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -7616,17 +7616,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Brandon Walker</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -7638,16 +7638,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1</v>
       </c>
       <c r="O118" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
@@ -7677,17 +7677,17 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -7714,10 +7714,10 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O119" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
@@ -7738,32 +7738,32 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>7:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>7:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -7839,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="O121" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122">
@@ -8805,7 +8805,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -8818,7 +8818,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -8840,40 +8840,40 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -8883,7 +8883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -738,7 +738,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10:06 - 2nd Half</t>
+          <t>5:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -906,47 +906,47 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>5:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -967,47 +967,47 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Billy Richmond III</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1348,17 +1348,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10:06 - 2nd Half</t>
+          <t>5:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -1373,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10:06 - 2nd Half</t>
+          <t>5:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -1958,20 +1958,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10:06 - 2nd Half</t>
+          <t>5:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
         <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="O25" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -2309,47 +2309,47 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>5:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>13</v>
       </c>
       <c r="I31" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
@@ -2370,17 +2370,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2389,28 +2389,28 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I32" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -2431,38 +2431,38 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>9</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10:06 - 2nd Half</t>
+          <t>5:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -2858,47 +2858,47 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>5:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I40" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
         <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
@@ -2919,47 +2919,47 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O41" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
@@ -2980,47 +2980,47 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10:06 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I42" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O42" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
@@ -3300,14 +3300,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10:06 - 2nd Half</t>
+          <t>5:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I47" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J47" t="n">
         <v>2</v>
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
@@ -4383,47 +4383,47 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>5:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H65" t="n">
         <v>8</v>
       </c>
       <c r="I65" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O65" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
@@ -4444,17 +4444,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4463,28 +4463,28 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I66" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
@@ -4505,32 +4505,32 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I67" t="n">
         <v>11</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
@@ -4542,10 +4542,10 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O67" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68">
@@ -4581,14 +4581,14 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10:06 - 2nd Half</t>
+          <t>5:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J68" t="n">
         <v>5</v>
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
@@ -5969,12 +5969,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5984,20 +5984,20 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>10:06 - 2nd Half</t>
+          <t>5:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H91" t="n">
         <v>7</v>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L91" t="n">
         <v>1</v>
@@ -6006,10 +6006,10 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
@@ -6030,38 +6030,38 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>5:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J92" t="n">
         <v>3</v>
       </c>
       <c r="K92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="O92" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
@@ -6091,47 +6091,47 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H93" t="n">
         <v>6</v>
       </c>
       <c r="I93" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O93" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>10:06 - 2nd Half</t>
+          <t>5:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>10:06 - 2nd Half</t>
+          <t>5:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>10:06 - 2nd Half</t>
+          <t>5:20 - 2nd Half</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -6619,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="O101" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
@@ -8805,7 +8805,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -8814,11 +8814,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -8827,11 +8827,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
@@ -8840,11 +8840,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -8853,7 +8853,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -8866,27 +8866,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-24.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:O155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -540,17 +540,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tramon Mark</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -562,16 +562,16 @@
         <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -601,7 +601,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Matas Vokietaitis</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -620,28 +620,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -662,35 +662,35 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Labaron Philon Jr.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -718,52 +718,52 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5:20 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -779,52 +779,52 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>13</v>
       </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -845,17 +845,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -864,28 +864,28 @@
         </is>
       </c>
       <c r="H7" t="n">
+        <v>23</v>
+      </c>
+      <c r="I7" t="n">
         <v>12</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>10</v>
       </c>
-      <c r="J7" t="n">
-        <v>4</v>
-      </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -906,47 +906,47 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Billy Richmond III</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5:20 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -967,17 +967,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -986,28 +986,28 @@
         </is>
       </c>
       <c r="H9" t="n">
+        <v>12</v>
+      </c>
+      <c r="I9" t="n">
         <v>10</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -1028,17 +1028,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Marcus Hill</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1047,16 +1047,16 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -1089,47 +1089,47 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1140,22 +1140,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1169,28 +1169,28 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -1201,57 +1201,57 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -1272,17 +1272,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1291,28 +1291,28 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5:20 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
+        <v>26</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16</v>
+      </c>
+      <c r="J15" t="n">
         <v>9</v>
       </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>7</v>
-      </c>
       <c r="K15" t="n">
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -1389,52 +1389,52 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>25</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1450,52 +1450,52 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5:20 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -1511,22 +1511,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1535,28 +1535,28 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I18" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -1577,36 +1577,36 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I19" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
         <v>5</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
@@ -1614,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -1638,17 +1638,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1657,17 +1657,17 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
         <v>3</v>
       </c>
-      <c r="K20" t="n">
-        <v>5</v>
-      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1675,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -1699,17 +1699,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1718,28 +1718,28 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
+        <v>8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
         <v>3</v>
       </c>
-      <c r="K21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
       <c r="O21" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -1750,45 +1750,45 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J22" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -1811,27 +1811,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1840,28 +1840,28 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I23" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1872,27 +1872,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1901,28 +1901,28 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -1933,45 +1933,45 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dedan Thomas Jr.</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5:20 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1999,17 +1999,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2023,28 +2023,28 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
@@ -2060,22 +2060,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2084,28 +2084,28 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I27" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J27" t="n">
         <v>7</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
@@ -2121,17 +2121,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2145,28 +2145,28 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -2182,22 +2182,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Dedan Thomas Jr.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2206,28 +2206,28 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -2238,22 +2238,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2267,28 +2267,28 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I30" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
@@ -2299,45 +2299,45 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5:20 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" t="n">
+        <v>12</v>
+      </c>
+      <c r="J31" t="n">
         <v>7</v>
       </c>
-      <c r="J31" t="n">
-        <v>5</v>
-      </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
@@ -2346,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -2360,27 +2360,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2389,28 +2389,28 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -2421,27 +2421,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2450,28 +2450,28 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
         <v>8</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -2482,27 +2482,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2511,28 +2511,28 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2572,28 +2572,28 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>14</v>
+        <v>-2</v>
       </c>
       <c r="I35" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
+        <v>3</v>
+      </c>
+      <c r="K35" t="n">
         <v>4</v>
       </c>
-      <c r="K35" t="n">
-        <v>1</v>
-      </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -2609,43 +2609,43 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I36" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -2670,43 +2670,43 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -2731,52 +2731,52 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5:20 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O38" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -2792,52 +2792,52 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2858,47 +2858,47 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>5:20 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I40" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="n">
         <v>4</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>2</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1</v>
-      </c>
       <c r="O40" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
@@ -2909,27 +2909,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2938,19 +2938,19 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I41" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J41" t="n">
+        <v>4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
         <v>3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4</v>
-      </c>
-      <c r="L41" t="n">
-        <v>7</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2970,57 +2970,57 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I42" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43">
@@ -3031,27 +3031,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3060,28 +3060,28 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3102,38 +3102,38 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I44" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3163,17 +3163,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3182,28 +3182,28 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I45" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3224,17 +3224,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3243,13 +3243,13 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3285,38 +3285,38 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>5:20 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
@@ -3341,22 +3341,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3365,28 +3365,28 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I48" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="J48" t="n">
         <v>2</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O48" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49">
@@ -3402,52 +3402,52 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J49" t="n">
         <v>3</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O49" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3468,47 +3468,47 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I50" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
         <v>6</v>
       </c>
-      <c r="K50" t="n">
-        <v>2</v>
-      </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O50" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3529,17 +3529,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3548,16 +3548,16 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I51" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
@@ -3566,10 +3566,10 @@
         <v>2</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
@@ -3580,27 +3580,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3609,28 +3609,28 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I52" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
@@ -3641,22 +3641,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3670,28 +3670,28 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I53" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
@@ -3702,27 +3702,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3731,10 +3731,10 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3743,16 +3743,16 @@
         <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3773,17 +3773,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3792,19 +3792,19 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I55" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K55" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I56" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
         <v>5</v>
@@ -3868,13 +3868,13 @@
         <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3914,28 +3914,28 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I57" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
         <v>3</v>
       </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>5</v>
-      </c>
       <c r="O57" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3975,13 +3975,13 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4017,17 +4017,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4036,28 +4036,28 @@
         </is>
       </c>
       <c r="H59" t="n">
+        <v>32</v>
+      </c>
+      <c r="I59" t="n">
         <v>26</v>
       </c>
-      <c r="I59" t="n">
-        <v>24</v>
-      </c>
       <c r="J59" t="n">
+        <v>6</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2</v>
+      </c>
+      <c r="L59" t="n">
         <v>5</v>
       </c>
-      <c r="K59" t="n">
-        <v>5</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O59" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4078,17 +4078,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4097,28 +4097,28 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J60" t="n">
         <v>7</v>
       </c>
       <c r="K60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4158,28 +4158,28 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K61" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4200,47 +4200,47 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O62" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
@@ -4251,22 +4251,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4280,28 +4280,28 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J63" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O63" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4322,17 +4322,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4341,28 +4341,28 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I64" t="n">
+        <v>16</v>
+      </c>
+      <c r="J64" t="n">
         <v>6</v>
       </c>
-      <c r="J64" t="n">
-        <v>3</v>
-      </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
         <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4383,47 +4383,47 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>5:20 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I65" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4444,17 +4444,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4463,28 +4463,28 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I66" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4505,17 +4505,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4524,28 +4524,28 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J67" t="n">
+        <v>4</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
         <v>5</v>
       </c>
-      <c r="K67" t="n">
-        <v>1</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>4</v>
-      </c>
       <c r="O67" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4566,35 +4566,35 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>5:20 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="I68" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -4622,17 +4622,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4646,16 +4646,16 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4664,10 +4664,10 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70">
@@ -4678,17 +4678,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4707,28 +4707,28 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I70" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
@@ -4739,57 +4739,57 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I71" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
         <v>3</v>
       </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
       <c r="N71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O71" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
@@ -4800,57 +4800,57 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I72" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K72" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
@@ -4861,27 +4861,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4890,28 +4890,28 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I73" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4932,12 +4932,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4951,7 +4951,7 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I74" t="n">
         <v>8</v>
@@ -4960,19 +4960,19 @@
         <v>8</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N74" t="n">
         <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4993,44 +4993,44 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J75" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O75" t="n">
         <v>27</v>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5054,17 +5054,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5073,28 +5073,28 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I76" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J76" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K76" t="n">
         <v>3</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
         <v>2</v>
       </c>
       <c r="O76" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5134,28 +5134,28 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I77" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J77" t="n">
         <v>4</v>
       </c>
       <c r="K77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
         <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5176,12 +5176,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -5195,28 +5195,28 @@
         </is>
       </c>
       <c r="H78" t="n">
+        <v>7</v>
+      </c>
+      <c r="I78" t="n">
         <v>11</v>
       </c>
-      <c r="I78" t="n">
-        <v>12</v>
-      </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O78" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5237,17 +5237,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5256,7 +5256,7 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I79" t="n">
         <v>5</v>
@@ -5277,7 +5277,7 @@
         <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5298,17 +5298,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5317,28 +5317,28 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O80" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
@@ -5359,12 +5359,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5378,28 +5378,28 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I81" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J81" t="n">
+        <v>2</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
         <v>3</v>
       </c>
-      <c r="K81" t="n">
-        <v>1</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
@@ -5420,47 +5420,47 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I82" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J82" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O82" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83">
@@ -5481,17 +5481,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Charles Bediako</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5500,28 +5500,28 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
@@ -5542,17 +5542,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5561,16 +5561,16 @@
         </is>
       </c>
       <c r="H84" t="n">
+        <v>17</v>
+      </c>
+      <c r="I84" t="n">
         <v>8</v>
       </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
       <c r="J84" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L84" t="n">
         <v>1</v>
@@ -5582,7 +5582,7 @@
         <v>2</v>
       </c>
       <c r="O84" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85">
@@ -5603,17 +5603,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5622,28 +5622,28 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I85" t="n">
+        <v>11</v>
+      </c>
+      <c r="J85" t="n">
         <v>3</v>
       </c>
-      <c r="J85" t="n">
-        <v>8</v>
-      </c>
       <c r="K85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86">
@@ -5664,17 +5664,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5683,16 +5683,16 @@
         </is>
       </c>
       <c r="H86" t="n">
+        <v>14</v>
+      </c>
+      <c r="I86" t="n">
         <v>8</v>
       </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
       <c r="J86" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -5701,10 +5701,10 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
@@ -5725,47 +5725,47 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J87" t="n">
+        <v>9</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
         <v>3</v>
       </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
       <c r="N87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O87" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I88" t="n">
+        <v>6</v>
+      </c>
+      <c r="J88" t="n">
+        <v>7</v>
+      </c>
+      <c r="K88" t="n">
         <v>3</v>
       </c>
-      <c r="J88" t="n">
-        <v>2</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
       <c r="L88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O88" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
@@ -5847,17 +5847,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -5866,28 +5866,28 @@
         </is>
       </c>
       <c r="H89" t="n">
+        <v>11</v>
+      </c>
+      <c r="I89" t="n">
         <v>8</v>
       </c>
-      <c r="I89" t="n">
-        <v>6</v>
-      </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90">
@@ -5908,17 +5908,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -5927,17 +5927,17 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I90" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J90" t="n">
+        <v>4</v>
+      </c>
+      <c r="K90" t="n">
         <v>3</v>
       </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
@@ -5945,10 +5945,10 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91">
@@ -5969,35 +5969,35 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>5:20 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I91" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L91" t="n">
         <v>1</v>
@@ -6006,10 +6006,10 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
@@ -6030,38 +6030,38 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>5:20 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="O92" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
@@ -6091,17 +6091,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6110,28 +6110,28 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
         <v>4</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
@@ -6152,17 +6152,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6171,28 +6171,28 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J94" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
@@ -6213,17 +6213,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6232,13 +6232,13 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
@@ -6274,17 +6274,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6293,28 +6293,28 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I96" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -6335,17 +6335,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6354,13 +6354,13 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -6372,10 +6372,10 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O97" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
@@ -6396,17 +6396,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6415,28 +6415,28 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O98" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99">
@@ -6457,47 +6457,47 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>5:20 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I99" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100">
@@ -6518,47 +6518,47 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>5:20 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I100" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O100" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
@@ -6579,47 +6579,47 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>LSU@ARK</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>5:20 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102">
@@ -6640,17 +6640,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6659,28 +6659,28 @@
         </is>
       </c>
       <c r="H102" t="n">
+        <v>8</v>
+      </c>
+      <c r="I102" t="n">
+        <v>6</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
         <v>4</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>4</v>
-      </c>
-      <c r="K102" t="n">
-        <v>2</v>
-      </c>
-      <c r="L102" t="n">
-        <v>2</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0</v>
-      </c>
-      <c r="O102" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="103">
@@ -6701,17 +6701,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -6720,28 +6720,28 @@
         </is>
       </c>
       <c r="H103" t="n">
+        <v>8</v>
+      </c>
+      <c r="I103" t="n">
+        <v>6</v>
+      </c>
+      <c r="J103" t="n">
         <v>3</v>
       </c>
-      <c r="I103" t="n">
-        <v>2</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
       <c r="K103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
@@ -6762,17 +6762,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -6781,16 +6781,16 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L104" t="n">
         <v>1</v>
@@ -6799,10 +6799,10 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105">
@@ -6823,17 +6823,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -6842,28 +6842,28 @@
         </is>
       </c>
       <c r="H105" t="n">
+        <v>7</v>
+      </c>
+      <c r="I105" t="n">
+        <v>4</v>
+      </c>
+      <c r="J105" t="n">
         <v>3</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>4</v>
-      </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
@@ -6884,17 +6884,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -6903,17 +6903,17 @@
         </is>
       </c>
       <c r="H106" t="n">
+        <v>6</v>
+      </c>
+      <c r="I106" t="n">
+        <v>5</v>
+      </c>
+      <c r="J106" t="n">
         <v>3</v>
       </c>
-      <c r="I106" t="n">
-        <v>9</v>
-      </c>
-      <c r="J106" t="n">
+      <c r="K106" t="n">
         <v>4</v>
       </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
       <c r="L106" t="n">
         <v>0</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="O106" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107">
@@ -6945,47 +6945,47 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O107" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -7006,17 +7006,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -7025,13 +7025,13 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I108" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -7043,10 +7043,10 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109">
@@ -7067,17 +7067,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -7086,13 +7086,13 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J109" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
@@ -7128,12 +7128,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -7147,13 +7147,13 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
@@ -7189,17 +7189,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Amier Ali</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -7208,28 +7208,28 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O111" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112">
@@ -7250,17 +7250,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -7269,28 +7269,28 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I112" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O112" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113">
@@ -7311,17 +7311,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -7330,13 +7330,13 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="O113" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
@@ -7372,17 +7372,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -7391,13 +7391,13 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I114" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -7406,13 +7406,13 @@
         <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O114" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115">
@@ -7433,17 +7433,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -7452,10 +7452,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J115" t="n">
         <v>2</v>
@@ -7470,10 +7470,10 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116">
@@ -7494,29 +7494,29 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>LSU@ARK</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -7531,10 +7531,10 @@
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O116" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
@@ -7555,17 +7555,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Blake Muschalek</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -7574,19 +7574,19 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="O117" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -7635,7 +7635,7 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I118" t="n">
         <v>2</v>
@@ -7644,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L118" t="n">
         <v>1</v>
@@ -7653,10 +7653,10 @@
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O118" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
@@ -7677,17 +7677,17 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -7696,19 +7696,19 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119" t="n">
         <v>0</v>
@@ -7717,7 +7717,7 @@
         <v>1</v>
       </c>
       <c r="O119" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120">
@@ -7738,17 +7738,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -7757,13 +7757,13 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121">
@@ -7799,17 +7799,17 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>AUB@FLA</t>
+          <t>MISS@UK</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -7818,16 +7818,16 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>0</v>
@@ -7836,10 +7836,10 @@
         <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122">
@@ -7860,29 +7860,29 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Sebastian Mack</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>OU@MIZ</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="O122" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123">
@@ -7921,17 +7921,17 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -7940,13 +7940,13 @@
         </is>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
@@ -7958,10 +7958,10 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O123" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124">
@@ -7982,17 +7982,17 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -8001,19 +8001,19 @@
         </is>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M124" t="n">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         <v>1</v>
       </c>
       <c r="O124" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
@@ -8043,32 +8043,32 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Luke Northweather</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>SC@TA&amp;M</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
@@ -8083,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
@@ -8104,17 +8104,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -8123,19 +8123,19 @@
         </is>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="O126" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127">
@@ -8165,32 +8165,32 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>Amier Ali</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -8202,10 +8202,10 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O127" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128">
@@ -8226,17 +8226,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>UGA@TEX</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -8245,13 +8245,13 @@
         </is>
       </c>
       <c r="H128" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
@@ -8266,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
@@ -8287,17 +8287,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Jaylon Dean-Vines</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -8306,10 +8306,10 @@
         </is>
       </c>
       <c r="H129" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129" t="n">
         <v>0</v>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130">
@@ -8348,35 +8348,35 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>0</v>
@@ -8385,10 +8385,10 @@
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O130" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131">
@@ -8409,29 +8409,29 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Lassina Traore</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>OU@MIZ</t>
+          <t>UGA@TEX</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
         <v>2</v>
@@ -8449,7 +8449,7 @@
         <v>2</v>
       </c>
       <c r="O131" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132">
@@ -8470,12 +8470,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -8489,7 +8489,7 @@
         </is>
       </c>
       <c r="H132" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -8507,10 +8507,10 @@
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -8531,17 +8531,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>MISS@UK</t>
+          <t>AUB@FLA</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -8550,7 +8550,7 @@
         </is>
       </c>
       <c r="H133" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="O133" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -8592,17 +8592,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Brandon Walker</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>SC@TA&amp;M</t>
+          <t>VAN@MSST</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -8611,19 +8611,19 @@
         </is>
       </c>
       <c r="H134" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M134" t="n">
         <v>0</v>
@@ -8632,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="O134" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
@@ -8653,17 +8653,17 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>VAN@MSST</t>
+          <t>TENN@ALA</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -8672,16 +8672,16 @@
         </is>
       </c>
       <c r="H135" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>0</v>
@@ -8690,10 +8690,10 @@
         <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O135" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
@@ -8714,46 +8714,1205 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
+          <t>Eduardo Klafke</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+      <c r="O136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Federiko Federiko</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Isaiah Brown</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>AUB@FLA</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Jayden Leverett</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Jordan Butler</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Kezza Giffa</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+      <c r="O141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Luke Northweather</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Travis Perry</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Annor Boateng</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+      <c r="O144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Dylan James</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>UGA@TEX</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Jaylon Dean-Vines</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+      <c r="O147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Trent Pierce</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>4</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>2</v>
+      </c>
+      <c r="O148" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Dayton Forsythe</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>OU@MIZ</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+      <c r="O149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Ethan Burg</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>TENN@ALA</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Koren Johnson</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>MISS@UK</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Noah Williamson</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>TENN@ALA</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Grant Polk</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>SC@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+      <c r="O153" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>VAN@MSST</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I154" t="n">
+        <v>2</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>2</v>
+      </c>
+      <c r="O154" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>Elijah Strong</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>SC@TA&amp;M</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H136" t="n">
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
         <v>-6</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>1</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0</v>
-      </c>
-      <c r="L136" t="n">
-        <v>0</v>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="n">
-        <v>0</v>
-      </c>
-      <c r="O136" t="n">
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
         <v>14</v>
       </c>
     </row>
@@ -8805,23 +9964,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -8831,7 +9990,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
@@ -8840,11 +9999,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -8853,11 +10012,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -8866,11 +10025,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -8879,14 +10038,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
